--- a/3. CMMR OPERACIONAL/mediciones.xlsx
+++ b/3. CMMR OPERACIONAL/mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE X\LABORATORIO DE INSTRUMENTACION\lab-instrumentacion\3. CMMR OPERACIONAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F37A1-A799-4179-8A2E-D7EE08F79863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF931A31-5804-40C0-B670-BADED1FBF599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A4B920C4-4029-40D7-8A66-9ACCC21386EC}"/>
   </bookViews>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>R1</t>
   </si>
@@ -86,6 +108,12 @@
   <si>
     <t>1M</t>
   </si>
+  <si>
+    <t>Ad [dB]</t>
+  </si>
+  <si>
+    <t>Ac [dB]</t>
+  </si>
 </sst>
 </file>
 
@@ -120,10 +148,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,6 +181,1961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Ganancia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> - Modo diferencial </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Ad [dB]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CMRR!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ad [dB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CMRR!$A$10:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CMRR!$B$10:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.350959524377242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.49943988596138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.350959524377242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.49943988596138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.49943988596138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.751768764710228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1441993929573675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3353-4434-825C-5533645566D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1197600527"/>
+        <c:axId val="1197601007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1197600527"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197601007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1197601007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197600527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Ganancia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> - Modo Común</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t> [dB]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CMRR!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ac [dB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CMRR!$A$21:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CMRR!$B$21:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-29.897000433601878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29.897000433601878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-29.897000433601878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.897000433601878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-29.897000433601878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.876400520322257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.35457533920863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BABA-485F-BA63-E28DD455EF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1291980255"/>
+        <c:axId val="1291978335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1291980255"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291978335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1291978335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291980255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCF8842-1712-0E7C-3D7C-EB07B135B653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2B3B43-661C-CA6B-1189-67097D42AB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,7 +2438,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25D0464-E3E3-4BAF-BB0E-DC5CBFFF4E69}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +2678,227 @@
         <v>6.666666666666667</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str" cm="1">
+        <f t="array" ref="A9:A16">_xlfn.TOCOL(A2:H2)</f>
+        <v>F [Hz]</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="str" cm="1">
+        <f t="array" ref="C9:C16">_xlfn.TOCOL(A4:H4)</f>
+        <v>Ad</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="5">
+        <f>20*LOG10(C10)</f>
+        <v>19.350959524377242</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" ref="B11:B16" si="3">20*LOG10(C11)</f>
+        <v>19.49943988596138</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="3"/>
+        <v>19.350959524377242</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>500</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="3"/>
+        <v>19.49943988596138</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="3"/>
+        <v>19.49943988596138</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="3"/>
+        <v>16.751768764710228</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6.88</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1441993929573675</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="str" cm="1">
+        <f t="array" ref="A20:A27">_xlfn.TOCOL(A2:H2)</f>
+        <v>F [Hz]</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="str" cm="1">
+        <f t="array" ref="C20:C27">_xlfn.TOCOL(A6:H6)</f>
+        <v>Ac</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="5">
+        <f>20*LOG10(C21)</f>
+        <v>-29.897000433601878</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" ref="B22:B27" si="4">20*LOG10(C22)</f>
+        <v>-29.897000433601878</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="4"/>
+        <v>-29.897000433601878</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>500</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="4"/>
+        <v>-29.897000433601878</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="4"/>
+        <v>-29.897000433601878</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="4"/>
+        <v>-23.876400520322257</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="4"/>
+        <v>-20.35457533920863</v>
+      </c>
+      <c r="C27" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>